--- a/AI_Engine/Resultados/Resultados buenos/dataFrame - skyway.xlsx
+++ b/AI_Engine/Resultados/Resultados buenos/dataFrame - skyway.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\W8DE5P2\OneDrive-Deere&amp;Co\OneDrive - Deere &amp; Co\Desktop\Proyectos\Nueva carpeta\Bot-Creacion-de-Pedidos\AI_Engine\Resultados\Resultados buenos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A1A49F-0F05-4A39-916D-8C6DB968470E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AA41E5-9887-4AAB-92FA-110B5C08BC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-130" yWindow="10690" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1680" yWindow="10785" windowWidth="11325" windowHeight="6825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="34">
   <si>
     <t>archivo</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>R524892</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -493,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,7 +508,7 @@
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,7 +534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -556,8 +559,11 @@
       <c r="I2">
         <v>89.953000000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -582,8 +588,11 @@
       <c r="I3">
         <v>89.953000000000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -608,8 +617,11 @@
       <c r="I4">
         <v>89.953000000000003</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -632,7 +644,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -652,7 +664,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -677,8 +689,11 @@
       <c r="I7">
         <v>69.036000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -703,8 +718,11 @@
       <c r="I8">
         <v>89.39</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -729,8 +747,11 @@
       <c r="I9">
         <v>89.39</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -755,8 +776,11 @@
       <c r="I10">
         <v>89.39</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -779,7 +803,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -799,7 +823,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -824,8 +848,11 @@
       <c r="I13">
         <v>90.153000000000006</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -850,8 +877,11 @@
       <c r="I14">
         <v>90.153000000000006</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -876,8 +906,11 @@
       <c r="I15">
         <v>90.153000000000006</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -902,8 +935,11 @@
       <c r="I16">
         <v>90.153000000000006</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -926,7 +962,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -946,7 +982,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -971,8 +1007,11 @@
       <c r="I19">
         <v>90.18</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -997,8 +1036,11 @@
       <c r="I20">
         <v>90.483000000000004</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1018,7 +1060,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1038,7 +1080,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I24">
         <f>AVERAGEIF(I2:I22, "&lt;&gt;-100")</f>
         <v>88.333846153846167</v>
